--- a/Fase III - Informes/9100 Evaluacion de evidencia/Revision analitica final.xlsx
+++ b/Fase III - Informes/9100 Evaluacion de evidencia/Revision analitica final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\Grafimpac\Fase III - Informes\9100 Evaluacion de evidencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87641BEA-E02D-409A-AE44-BF02E1302500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EB76E0-A33E-49F5-95E6-98E1EA3AF6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Programa" sheetId="1" r:id="rId1"/>
@@ -3308,7 +3308,7 @@
     <numFmt numFmtId="172" formatCode="_ \$* #,##0.00_ ;_ \$* \-#,##0.00_ ;_ \$* \-??_ ;_ @_ "/>
     <numFmt numFmtId="173" formatCode="&quot; &quot;#,##0.00&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;;&quot;-&quot;00&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
     <numFmt numFmtId="174" formatCode="&quot; &quot;0&quot; &quot;;&quot;-&quot;0&quot; &quot;;&quot;-&quot;00&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="175" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3336,13 +3336,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
@@ -3354,7 +3354,7 @@
       <sz val="11"/>
       <color rgb="FFC9211E"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3551,7 +3551,7 @@
       <name val="Liberation Sans1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3574,6 +3574,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFC9211E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3937,7 +3943,6 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="32" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="25" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="25" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -3946,20 +3951,30 @@
     <xf numFmtId="169" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3986,16 +4001,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="8" xr:uid="{AF2AED71-83D9-43AC-AF23-B5CB016358F6}"/>
@@ -4452,22 +4458,22 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="3"/>
-      <c r="B2" s="123" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
+      <c r="B2" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16">
@@ -4493,23 +4499,23 @@
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="125" t="s">
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
       <c r="P4" s="6"/>
     </row>
     <row r="5" spans="1:16">
@@ -4517,25 +4523,25 @@
       <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="125" t="s">
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="127" t="s">
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="127"/>
+      <c r="O5" s="130"/>
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="1:16">
@@ -4549,15 +4555,15 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="125" t="s">
+      <c r="K6" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="128">
+      <c r="L6" s="128"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="129">
         <v>44134</v>
       </c>
-      <c r="O6" s="128"/>
+      <c r="O6" s="129"/>
       <c r="P6" s="6"/>
     </row>
     <row r="7" spans="1:16">
@@ -4571,15 +4577,15 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="125" t="s">
+      <c r="K7" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="125"/>
-      <c r="M7" s="125"/>
-      <c r="N7" s="127" t="s">
+      <c r="L7" s="128"/>
+      <c r="M7" s="128"/>
+      <c r="N7" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="127"/>
+      <c r="O7" s="130"/>
       <c r="P7" s="6"/>
     </row>
     <row r="8" spans="1:16">
@@ -4587,23 +4593,23 @@
       <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="124" t="s">
+      <c r="C8" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="125" t="s">
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
+      <c r="L8" s="128"/>
+      <c r="M8" s="128"/>
+      <c r="N8" s="132"/>
+      <c r="O8" s="132"/>
       <c r="P8" s="6"/>
     </row>
     <row r="9" spans="1:16">
@@ -4989,6 +4995,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="K7:M7"/>
@@ -4996,13 +5009,6 @@
     <mergeCell ref="C8:J8"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5013,10 +5019,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -5687,18 +5693,19 @@
         <v>81</v>
       </c>
       <c r="C39" s="31">
-        <v>2055890</v>
+        <f>+ER!C31</f>
+        <v>2222879.270000007</v>
       </c>
       <c r="D39" s="31">
         <v>994720</v>
       </c>
       <c r="E39" s="31">
         <f t="shared" si="3"/>
-        <v>1061170</v>
+        <v>1228159.270000007</v>
       </c>
       <c r="F39" s="32">
         <f t="shared" si="4"/>
-        <v>1.0668027183529034</v>
+        <v>1.2346783718031276</v>
       </c>
       <c r="G39" s="30"/>
     </row>
@@ -5707,8 +5714,8 @@
         <v>82</v>
       </c>
       <c r="C40" s="98">
-        <f>11241280-4384989+2326296</f>
-        <v>9182587</v>
+        <f>9015598</f>
+        <v>9015598</v>
       </c>
       <c r="D40" s="31">
         <f>7834868-994720</f>
@@ -5716,11 +5723,11 @@
       </c>
       <c r="E40" s="31">
         <f t="shared" si="3"/>
-        <v>2342439</v>
+        <v>2175450</v>
       </c>
       <c r="F40" s="32">
         <f t="shared" si="4"/>
-        <v>0.34245443227251809</v>
+        <v>0.31804136401726979</v>
       </c>
       <c r="G40" s="30"/>
     </row>
@@ -5730,7 +5737,7 @@
       </c>
       <c r="C41" s="34">
         <f>SUM(C37:C40)</f>
-        <v>13567575.66</v>
+        <v>13567575.930000007</v>
       </c>
       <c r="D41" s="34">
         <f>SUM(D37:D40)</f>
@@ -5738,11 +5745,11 @@
       </c>
       <c r="E41" s="34">
         <f t="shared" si="3"/>
-        <v>3498007.66</v>
+        <v>3498007.9300000072</v>
       </c>
       <c r="F41" s="32">
         <f t="shared" si="4"/>
-        <v>0.34738408440163471</v>
+        <v>0.34738411121509949</v>
       </c>
       <c r="G41" s="30"/>
     </row>
@@ -5752,7 +5759,7 @@
       </c>
       <c r="C42" s="38">
         <f>+C34+C41</f>
-        <v>28709015.840000004</v>
+        <v>28709016.110000007</v>
       </c>
       <c r="D42" s="38">
         <f>+D41+D34</f>
@@ -5760,18 +5767,18 @@
       </c>
       <c r="E42" s="34">
         <f t="shared" si="3"/>
-        <v>9982996.8400000036</v>
+        <v>9982997.1100000069</v>
       </c>
       <c r="F42" s="42">
         <f t="shared" si="4"/>
-        <v>0.53310833658771806</v>
+        <v>0.53310835100615928</v>
       </c>
       <c r="G42" s="37"/>
     </row>
     <row r="43" spans="2:7">
       <c r="C43" s="26">
         <f>+C42-C20</f>
-        <v>0.11000000312924385</v>
+        <v>0.38000000640749931</v>
       </c>
       <c r="D43" s="26">
         <f>+D42-D20</f>
@@ -5779,7 +5786,7 @@
       </c>
       <c r="E43" s="26">
         <f>+E42-E20</f>
-        <v>0.39000000432133675</v>
+        <v>0.66000000759959221</v>
       </c>
       <c r="F43" s="43"/>
     </row>
@@ -5810,7 +5817,7 @@
       </c>
       <c r="C46" s="44">
         <f>+C34/C41</f>
-        <v>1.1160018974237289</v>
+        <v>1.1160018752148597</v>
       </c>
       <c r="D46" s="44">
         <f>+D34/D41</f>
@@ -5863,9 +5870,9 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19:C20"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -5896,12 +5903,12 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="C4" s="137"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="129" t="s">
+      <c r="C4" s="122"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="134" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="129"/>
+      <c r="F4" s="134"/>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="27" t="s">
@@ -6436,7 +6443,7 @@
   <dimension ref="B1:K29"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6734,30 +6741,30 @@
       <c r="B19" s="111" t="s">
         <v>1063</v>
       </c>
-      <c r="C19" s="118">
+      <c r="C19" s="117">
         <f t="shared" ref="C19" si="1">SUM(C12:C17)</f>
         <v>1608300</v>
       </c>
-      <c r="D19" s="118">
+      <c r="D19" s="117">
         <v>619401</v>
       </c>
-      <c r="E19" s="118">
+      <c r="E19" s="117">
         <f>+'ESF20'!E223</f>
         <v>6999.56</v>
       </c>
-      <c r="F19" s="118">
+      <c r="F19" s="117">
         <f>7056005-284905</f>
         <v>6771100</v>
       </c>
-      <c r="G19" s="118">
+      <c r="G19" s="117">
         <f>+'ESF20'!E228</f>
         <v>27785.96</v>
       </c>
-      <c r="H19" s="118">
+      <c r="H19" s="117">
         <f>+'ESF20'!E242</f>
         <v>971338.87</v>
       </c>
-      <c r="I19" s="118">
+      <c r="I19" s="117">
         <f>+'ESF20'!E234</f>
         <v>64643.040000000001</v>
       </c>
@@ -6765,36 +6772,36 @@
         <f>SUM(C19:I19)</f>
         <v>10069568.43</v>
       </c>
-      <c r="K19" s="119">
+      <c r="K19" s="118">
         <f>+J19-BG!D41</f>
         <v>0.42999999970197678</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="104"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
       <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="104" t="s">
         <v>1059</v>
       </c>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116">
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115">
         <f>+'ERI21'!H17</f>
         <v>2215158.7499999977</v>
       </c>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
       <c r="J21" s="105">
         <f t="shared" ref="J21:J26" si="2">SUM(C21:I21)</f>
         <v>2215158.7499999977</v>
@@ -6804,13 +6811,13 @@
       <c r="B22" s="104" t="s">
         <v>1060</v>
       </c>
-      <c r="C22" s="116"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
       <c r="J22" s="105">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6820,37 +6827,36 @@
       <c r="B23" s="104" t="s">
         <v>1075</v>
       </c>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116">
-        <f>869963-'ESF20'!E241</f>
-        <v>1154867.99</v>
-      </c>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115">
+        <v>2172254</v>
+      </c>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
       <c r="J23" s="105">
         <f t="shared" si="2"/>
-        <v>1154867.99</v>
+        <v>2172254</v>
       </c>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="104" t="s">
         <v>1061</v>
       </c>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116">
+      <c r="C24" s="115"/>
+      <c r="D24" s="115">
         <f>713799-619401</f>
         <v>94398</v>
       </c>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116">
+      <c r="E24" s="115"/>
+      <c r="F24" s="115">
         <v>-94398</v>
       </c>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
       <c r="J24" s="105">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6860,15 +6866,15 @@
       <c r="B25" s="104" t="s">
         <v>1077</v>
       </c>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="122">
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="121">
         <v>18297</v>
       </c>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
       <c r="J25" s="105">
         <f t="shared" si="2"/>
         <v>18297</v>
@@ -6878,16 +6884,16 @@
       <c r="B26" s="104" t="s">
         <v>1062</v>
       </c>
-      <c r="C26" s="116"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="117">
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="116">
         <f>+'ESF21'!H146+62654</f>
         <v>109683.26000000536</v>
       </c>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
       <c r="J26" s="105">
         <f t="shared" si="2"/>
         <v>109683.26000000536</v>
@@ -6895,56 +6901,56 @@
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="104"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
       <c r="J27" s="104"/>
     </row>
     <row r="28" spans="2:11" s="109" customFormat="1" ht="14.25">
       <c r="B28" s="111" t="s">
         <v>1064</v>
       </c>
-      <c r="C28" s="118">
+      <c r="C28" s="117">
         <f t="shared" ref="C28:J28" si="3">SUM(C19:C26)</f>
         <v>1608300</v>
       </c>
-      <c r="D28" s="118">
+      <c r="D28" s="117">
         <f t="shared" si="3"/>
         <v>713799</v>
       </c>
-      <c r="E28" s="118">
+      <c r="E28" s="117">
         <f t="shared" si="3"/>
         <v>6999.56</v>
       </c>
-      <c r="F28" s="118">
+      <c r="F28" s="117">
         <f t="shared" si="3"/>
-        <v>10174709.000000004</v>
-      </c>
-      <c r="G28" s="118">
+        <v>11192095.010000004</v>
+      </c>
+      <c r="G28" s="117">
         <f t="shared" si="3"/>
         <v>27785.96</v>
       </c>
-      <c r="H28" s="118">
+      <c r="H28" s="117">
         <f t="shared" si="3"/>
         <v>971338.87</v>
       </c>
-      <c r="I28" s="118">
+      <c r="I28" s="117">
         <f t="shared" si="3"/>
         <v>64643.040000000001</v>
       </c>
       <c r="J28" s="112">
         <f t="shared" si="3"/>
-        <v>13567575.430000003</v>
+        <v>14584961.440000003</v>
       </c>
     </row>
     <row r="29" spans="2:11">
-      <c r="J29" s="114">
+      <c r="J29" s="142">
         <f>+J28-BG!C41</f>
-        <v>-0.22999999672174454</v>
+        <v>1017385.5099999961</v>
       </c>
     </row>
   </sheetData>
@@ -6957,10 +6963,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:H234"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A8" sqref="A8"/>
-      <selection pane="bottomLeft" activeCell="B126" sqref="B126"/>
+      <selection pane="bottomLeft" activeCell="E161" sqref="E161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6985,44 +6991,44 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="136" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="135" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="130" t="s">
+      <c r="A6" s="135" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="130"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="135" t="s">
         <v>1030</v>
       </c>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="95" t="s">
@@ -9219,7 +9225,7 @@
       <c r="G138" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="H138" s="120">
+      <c r="H138" s="119">
         <f>+E11</f>
         <v>28644907.73</v>
       </c>
@@ -9260,7 +9266,7 @@
       <c r="G140" s="94" t="s">
         <v>1072</v>
       </c>
-      <c r="H140" s="120">
+      <c r="H140" s="119">
         <f>+E140</f>
         <v>15141440.18</v>
       </c>
@@ -9284,7 +9290,7 @@
       <c r="G141" s="94" t="s">
         <v>1073</v>
       </c>
-      <c r="H141" s="120">
+      <c r="H141" s="119">
         <f>+E192</f>
         <v>11241279.539999999</v>
       </c>
@@ -9305,7 +9311,7 @@
       <c r="E142" s="97">
         <v>13801579.83</v>
       </c>
-      <c r="H142" s="121">
+      <c r="H142" s="120">
         <f>+H140+H141</f>
         <v>26382719.719999999</v>
       </c>
@@ -9329,7 +9335,7 @@
       <c r="G143" s="94" t="s">
         <v>1071</v>
       </c>
-      <c r="H143" s="121">
+      <c r="H143" s="120">
         <f>+'ERI21'!H17</f>
         <v>2215158.7499999977</v>
       </c>
@@ -9353,7 +9359,7 @@
       <c r="G144" s="94" t="s">
         <v>1074</v>
       </c>
-      <c r="H144" s="121">
+      <c r="H144" s="120">
         <f>+H142+H143</f>
         <v>28597878.469999995</v>
       </c>
@@ -9394,7 +9400,7 @@
       <c r="G146" s="94" t="s">
         <v>1076</v>
       </c>
-      <c r="H146" s="121">
+      <c r="H146" s="120">
         <f>+H138-H144</f>
         <v>47029.260000005364</v>
       </c>
@@ -10912,14 +10918,14 @@
   <dimension ref="A2:H305"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
-      <selection pane="bottomLeft" activeCell="H109" sqref="H109"/>
+      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="141" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="126" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.42578125" style="94" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" style="94" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="94" bestFit="1" customWidth="1"/>
@@ -10931,7 +10937,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="15">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="124" t="s">
         <v>111</v>
       </c>
       <c r="D2" s="95" t="s">
@@ -10939,47 +10945,47 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="136" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="135" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="130" t="s">
+      <c r="A6" s="135" t="s">
         <v>312</v>
       </c>
-      <c r="B6" s="130"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="135" t="s">
         <v>1030</v>
       </c>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
     </row>
     <row r="10" spans="1:8" ht="15">
-      <c r="A10" s="140" t="s">
+      <c r="A10" s="125" t="s">
         <v>115</v>
       </c>
       <c r="B10" s="95" t="s">
@@ -10997,7 +11003,7 @@
       <c r="G10" s="94" t="s">
         <v>1065</v>
       </c>
-      <c r="H10" s="120">
+      <c r="H10" s="119">
         <f>+E11</f>
         <v>30707542.329999998</v>
       </c>
@@ -11021,7 +11027,7 @@
       <c r="G11" s="94" t="s">
         <v>1066</v>
       </c>
-      <c r="H11" s="120">
+      <c r="H11" s="119">
         <f>+E44</f>
         <v>25013306.050000001</v>
       </c>
@@ -11045,7 +11051,7 @@
       <c r="G12" s="94" t="s">
         <v>1067</v>
       </c>
-      <c r="H12" s="121">
+      <c r="H12" s="120">
         <f>+H10-H11</f>
         <v>5694236.2799999975</v>
       </c>
@@ -11086,7 +11092,7 @@
       <c r="G14" s="94" t="s">
         <v>1068</v>
       </c>
-      <c r="H14" s="120">
+      <c r="H14" s="119">
         <f>+E160</f>
         <v>3255230.21</v>
       </c>
@@ -11110,7 +11116,7 @@
       <c r="G15" s="94" t="s">
         <v>1069</v>
       </c>
-      <c r="H15" s="120">
+      <c r="H15" s="119">
         <f>+E282</f>
         <v>46891.86</v>
       </c>
@@ -11134,7 +11140,7 @@
       <c r="G16" s="94" t="s">
         <v>1070</v>
       </c>
-      <c r="H16" s="120">
+      <c r="H16" s="119">
         <f>+E289</f>
         <v>176955.46</v>
       </c>
@@ -11158,7 +11164,7 @@
       <c r="G17" s="94" t="s">
         <v>1071</v>
       </c>
-      <c r="H17" s="121">
+      <c r="H17" s="120">
         <f>+H12-H14-H15-H16</f>
         <v>2215158.7499999977</v>
       </c>
@@ -12715,7 +12721,7 @@
       <c r="G108" s="94" t="s">
         <v>1079</v>
       </c>
-      <c r="H108" s="142">
+      <c r="H108" s="127">
         <f>+E107+E75</f>
         <v>535548.16000000003</v>
       </c>
@@ -12739,7 +12745,7 @@
       <c r="G109" s="94" t="s">
         <v>1080</v>
       </c>
-      <c r="H109" s="142">
+      <c r="H109" s="127">
         <f>+E275</f>
         <v>52856.59</v>
       </c>
@@ -12763,7 +12769,7 @@
       <c r="G110" s="94" t="s">
         <v>1074</v>
       </c>
-      <c r="H110" s="142">
+      <c r="H110" s="127">
         <f>+H108+H109</f>
         <v>588404.75</v>
       </c>
@@ -16097,12 +16103,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A2:F258"/>
+  <dimension ref="A2:H258"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A8" sqref="A8"/>
-      <selection pane="bottomLeft" activeCell="E241" sqref="E241"/>
+      <selection pane="bottomLeft" activeCell="H149" sqref="H149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -16122,44 +16128,44 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="24.75">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
     </row>
     <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="138" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="133"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
     </row>
     <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="133"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="139" t="s">
         <v>558</v>
       </c>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="60" t="s">
@@ -18456,7 +18462,7 @@
         <v>8434313.6699999999</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:8">
       <c r="A145" s="62">
         <v>201</v>
       </c>
@@ -18473,7 +18479,7 @@
         <v>7682263.21</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:8">
       <c r="A146" s="62">
         <v>20103</v>
       </c>
@@ -18490,7 +18496,7 @@
         <v>7198395.7599999998</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:8">
       <c r="A147" s="62">
         <v>2010301</v>
       </c>
@@ -18507,7 +18513,7 @@
         <v>1006161.55</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:8">
       <c r="A148" s="62">
         <v>201030101</v>
       </c>
@@ -18524,7 +18530,7 @@
         <v>1006161.55</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:8">
       <c r="A149" s="62">
         <v>201030101001</v>
       </c>
@@ -18540,8 +18546,9 @@
       <c r="E149" s="63">
         <v>569589.9</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="H149" s="26"/>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="62">
         <v>201030101002</v>
       </c>
@@ -18558,7 +18565,7 @@
         <v>436571.65</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:8">
       <c r="A151" s="62">
         <v>2010302</v>
       </c>
@@ -18575,7 +18582,7 @@
         <v>2900969</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:8">
       <c r="A152" s="62">
         <v>201030201</v>
       </c>
@@ -18592,7 +18599,7 @@
         <v>2900969</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:8">
       <c r="A153" s="62">
         <v>201030201001</v>
       </c>
@@ -18609,7 +18616,7 @@
         <v>2892969</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:8">
       <c r="A154" s="62">
         <v>201030201002</v>
       </c>
@@ -18626,7 +18633,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:8">
       <c r="A155" s="62">
         <v>2010304</v>
       </c>
@@ -18643,7 +18650,7 @@
         <v>3291265.21</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:8">
       <c r="A156" s="62">
         <v>201030401</v>
       </c>
@@ -18660,7 +18667,7 @@
         <v>3291265.21</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:8">
       <c r="A157" s="62">
         <v>201030401001</v>
       </c>
@@ -18677,7 +18684,7 @@
         <v>21208.81</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:8">
       <c r="A158" s="62">
         <v>201030401002</v>
       </c>
@@ -18694,7 +18701,7 @@
         <v>2365.91</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:8">
       <c r="A159" s="62">
         <v>201030401003</v>
       </c>
@@ -18711,7 +18718,7 @@
         <v>3266925.54</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:8">
       <c r="A160" s="62">
         <v>201030401004</v>
       </c>
@@ -20432,11 +20439,11 @@
       <c r="A1" s="65" t="s">
         <v>572</v>
       </c>
-      <c r="M1" s="136" t="s">
+      <c r="M1" s="141" t="s">
         <v>573</v>
       </c>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
+      <c r="N1" s="141"/>
+      <c r="O1" s="141"/>
     </row>
     <row r="2" spans="1:15" ht="15.75">
       <c r="A2" s="66" t="s">
@@ -20468,16 +20475,16 @@
       <c r="O3" s="67"/>
     </row>
     <row r="4" spans="1:15" ht="24.75">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
       <c r="M4" s="67"/>
       <c r="N4" s="68">
         <f>+N2+N3</f>
@@ -20486,16 +20493,16 @@
       <c r="O4" s="67"/>
     </row>
     <row r="5" spans="1:15" ht="15.75">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="138" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="133"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
       <c r="M5" s="67"/>
       <c r="N5" s="70">
         <f>+N4+[1]CTE2020!F48</f>
@@ -20506,16 +20513,16 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="138" t="s">
         <v>312</v>
       </c>
-      <c r="B6" s="133"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
       <c r="M6" s="67"/>
       <c r="N6" s="68">
         <f>+N5*0.2</f>
@@ -20536,16 +20543,16 @@
       <c r="O7" s="67"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="139" t="s">
         <v>558</v>
       </c>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
       <c r="M8" s="71"/>
       <c r="N8" s="71"/>
       <c r="O8" s="71"/>
@@ -20577,8 +20584,8 @@
       <c r="G10" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="I10" s="135"/>
-      <c r="J10" s="135"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="73">

--- a/Fase III - Informes/9100 Evaluacion de evidencia/Revision analitica final.xlsx
+++ b/Fase III - Informes/9100 Evaluacion de evidencia/Revision analitica final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\Grafimpac\Fase III - Informes\9100 Evaluacion de evidencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EB76E0-A33E-49F5-95E6-98E1EA3AF6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9DFCAD-6009-4974-B1B2-075A724F3C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Programa" sheetId="1" r:id="rId1"/>
@@ -3961,20 +3961,21 @@
     <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="175" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4001,7 +4002,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="8" xr:uid="{AF2AED71-83D9-43AC-AF23-B5CB016358F6}"/>
@@ -4458,22 +4458,22 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="3"/>
-      <c r="B2" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
+      <c r="B2" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16">
@@ -4499,21 +4499,21 @@
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="131" t="s">
+      <c r="C4" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="128" t="s">
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="131"/>
       <c r="N4" s="132"/>
       <c r="O4" s="132"/>
       <c r="P4" s="6"/>
@@ -4523,25 +4523,25 @@
       <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="128" t="s">
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="130" t="s">
+      <c r="L5" s="131"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="130"/>
+      <c r="O5" s="133"/>
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="1:16">
@@ -4555,15 +4555,15 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="128" t="s">
+      <c r="K6" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="128"/>
-      <c r="M6" s="128"/>
-      <c r="N6" s="129">
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="134">
         <v>44134</v>
       </c>
-      <c r="O6" s="129"/>
+      <c r="O6" s="134"/>
       <c r="P6" s="6"/>
     </row>
     <row r="7" spans="1:16">
@@ -4577,15 +4577,15 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="128" t="s">
+      <c r="K7" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
-      <c r="N7" s="130" t="s">
+      <c r="L7" s="131"/>
+      <c r="M7" s="131"/>
+      <c r="N7" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="130"/>
+      <c r="O7" s="133"/>
       <c r="P7" s="6"/>
     </row>
     <row r="8" spans="1:16">
@@ -4593,21 +4593,21 @@
       <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="131" t="s">
+      <c r="C8" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="131"/>
-      <c r="K8" s="128" t="s">
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="128"/>
-      <c r="M8" s="128"/>
+      <c r="L8" s="131"/>
+      <c r="M8" s="131"/>
       <c r="N8" s="132"/>
       <c r="O8" s="132"/>
       <c r="P8" s="6"/>
@@ -4995,6 +4995,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:O8"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="K4:M4"/>
@@ -5002,13 +5009,6 @@
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5020,9 +5020,9 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -5870,9 +5870,9 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -5905,10 +5905,10 @@
     <row r="4" spans="1:7">
       <c r="C4" s="122"/>
       <c r="D4" s="123"/>
-      <c r="E4" s="134" t="s">
+      <c r="E4" s="135" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="134"/>
+      <c r="F4" s="135"/>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="27" t="s">
@@ -6948,7 +6948,7 @@
       </c>
     </row>
     <row r="29" spans="2:11">
-      <c r="J29" s="142">
+      <c r="J29" s="128">
         <f>+J28-BG!C41</f>
         <v>1017385.5099999961</v>
       </c>
@@ -6963,19 +6963,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:H234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A8" sqref="A8"/>
-      <selection pane="bottomLeft" activeCell="E161" sqref="E161"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="94" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70" style="94" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="94" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="94" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="94" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="94" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="94" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="94" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" style="94" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="94"/>
     <col min="8" max="8" width="13.140625" style="94" bestFit="1" customWidth="1"/>
@@ -6991,44 +6991,44 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="136" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="135"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="136" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="135" t="s">
+      <c r="A8" s="136" t="s">
         <v>1030</v>
       </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="95" t="s">
@@ -10917,19 +10917,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:H305"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
-      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
+      <selection pane="bottomLeft" activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="126" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.42578125" style="94" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="94" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="94" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="94" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="94" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="94" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="94" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.28515625" style="94" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="94" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" style="94" bestFit="1" customWidth="1"/>
@@ -10945,44 +10945,44 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="136" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="135"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="136" t="s">
         <v>312</v>
       </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="135" t="s">
+      <c r="A8" s="136" t="s">
         <v>1030</v>
       </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
     </row>
     <row r="10" spans="1:8" ht="15">
       <c r="A10" s="125" t="s">
@@ -16105,10 +16105,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:H258"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A8" sqref="A8"/>
-      <selection pane="bottomLeft" activeCell="H149" sqref="H149"/>
+      <selection pane="bottomLeft" activeCell="E126" sqref="E126:E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -16128,44 +16128,44 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="24.75">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="138" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="137"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
     </row>
     <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="139" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="138"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
     </row>
     <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" s="138" t="s">
+      <c r="A6" s="139" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="139" t="s">
+      <c r="A8" s="140" t="s">
         <v>558</v>
       </c>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="60" t="s">
@@ -20439,11 +20439,11 @@
       <c r="A1" s="65" t="s">
         <v>572</v>
       </c>
-      <c r="M1" s="141" t="s">
+      <c r="M1" s="142" t="s">
         <v>573</v>
       </c>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
     </row>
     <row r="2" spans="1:15" ht="15.75">
       <c r="A2" s="66" t="s">
@@ -20475,16 +20475,16 @@
       <c r="O3" s="67"/>
     </row>
     <row r="4" spans="1:15" ht="24.75">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="138" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="137"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
       <c r="M4" s="67"/>
       <c r="N4" s="68">
         <f>+N2+N3</f>
@@ -20493,16 +20493,16 @@
       <c r="O4" s="67"/>
     </row>
     <row r="5" spans="1:15" ht="15.75">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="139" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="138"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
       <c r="M5" s="67"/>
       <c r="N5" s="70">
         <f>+N4+[1]CTE2020!F48</f>
@@ -20513,16 +20513,16 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75">
-      <c r="A6" s="138" t="s">
+      <c r="A6" s="139" t="s">
         <v>312</v>
       </c>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
       <c r="M6" s="67"/>
       <c r="N6" s="68">
         <f>+N5*0.2</f>
@@ -20543,16 +20543,16 @@
       <c r="O7" s="67"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="139" t="s">
+      <c r="A8" s="140" t="s">
         <v>558</v>
       </c>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
       <c r="M8" s="71"/>
       <c r="N8" s="71"/>
       <c r="O8" s="71"/>
@@ -20584,8 +20584,8 @@
       <c r="G10" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="73">
